--- a/TestSpread.xlsx
+++ b/TestSpread.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t xml:space="preserve">:w</t>
+  </si>
   <si>
     <t xml:space="preserve">This is a test cell</t>
   </si>
@@ -124,10 +127,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A8:D51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -137,17 +140,36 @@
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
